--- a/medicine/Sexualité et sexologie/Sextape/Sextape.xlsx
+++ b/medicine/Sexualité et sexologie/Sextape/Sextape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une sextape est une vidéo érotique ou pornographique amateure destinée à un visionnage privé et souvent faite par des célébrités qui en sont les protagonistes.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis les années 2000, nombre de célébrités (principalement du monde du spectacle ou du sport) ont vu leurs sextapes dévoilées et largement diffusées sur internet[1], malgré une opposition plus ou moins virulente (et plus ou moins crédible) à leur diffusion. La mise en ligne présumée ou avérée de ces vidéos peut être un moyen efficace de créer le buzz autour de la personne mise en scène.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis les années 2000, nombre de célébrités (principalement du monde du spectacle ou du sport) ont vu leurs sextapes dévoilées et largement diffusées sur internet, malgré une opposition plus ou moins virulente (et plus ou moins crédible) à leur diffusion. La mise en ligne présumée ou avérée de ces vidéos peut être un moyen efficace de créer le buzz autour de la personne mise en scène.
 À titre d'exemple, la diffusion de la sextape de Paris Hilton en 2003, de celle de Kim Kardashian en 2007, a élevé leur niveau de célébrité, les plaçant à la une des magazines ou des émissions de télé-réalité.
 </t>
         </is>
@@ -544,57 +558,59 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnalités suivantes ont eu leur sextape diffusée sur internet :
-Amy Fisher[2]
-Belén Rodríguez[3]
+Amy Fisher
+Belén Rodríguez
 Benjamin Griveaux
-Carolyn Murphy[4]
+Carolyn Murphy
 Britney Spears avec Kevin Federline
-Carrie Prejean[5]
-Chu Mei-Feng[6]
-Chua Soi Lek[7]
-Daniella Cicarelli[8]
-Dustin Diamond[9]
+Carrie Prejean
+Chu Mei-Feng
+Chua Soi Lek
+Daniella Cicarelli
+Dustin Diamond
 Dustin Lance Black
-Farrah Abraham[10]
-Fred Durst[11]
-Hoàng Thùy Linh[12]
-Hulk Hogan avec Heather Clem Cole[13]
-Jayne Kennedy[5]
-Jenna Lewis[14]
+Farrah Abraham
+Fred Durst
+Hoàng Thùy Linh
+Hulk Hogan avec Heather Clem Cole
+Jayne Kennedy
+Jenna Lewis
 Jenni Rivera
 Jeremy Jackson avec Sky Lopez
 John Edwards avec Rielle Hunter
-John Leslie avec Abi Titmuss[15]
-Karissa Shannon avec Sam Jones III[16]
-Katrina Halili avec Hayden Kho[17]
-Keeley Hazell[18]
-Kendra Wilkinson[19]
-Kim Kardashian avec Ray J[20]
+John Leslie avec Abi Titmuss
+Karissa Shannon avec Sam Jones III
+Katrina Halili avec Hayden Kho
+Keeley Hazell
+Kendra Wilkinson
+Kim Kardashian avec Ray J
 Mimi Macpherson
 Mindy McCready
 Minka Kelly
 Montana Fishburne
 Nazril Irham
-Nicole Narain et Colin Farrell[21].
+Nicole Narain et Colin Farrell.
 Nikita Dzhigurda et Marina Anissina
-Noelia[22]
-Olivia Mojica[23]
-Ophélie Marie[24]
+Noelia
+Olivia Mojica
+Ophélie Marie
 Pamela Anderson
-avec Bret Michaels[5].
-avec Tommy Lee[21]
+avec Bret Michaels.
+avec Tommy Lee
 Paige avec Xavier Woods et Brad Maddox
-Paris Hilton avec Rick Salomon[21]
-Rob Lowe[25]
-Severina Vučković[26]
+Paris Hilton avec Rick Salomon
+Rob Lowe
+Severina Vučković
 Shauna Sand
-Tonya Harding avec Jeff Gillooly aka Jeff Stone[5]
-Tulisa Contostavlos[27]
+Tonya Harding avec Jeff Gillooly aka Jeff Stone
+Tulisa Contostavlos
 Ulrika Jonsson
-Vince Neil avec Janine Lindemulder et Brandy Ledford[28],[29]
+Vince Neil avec Janine Lindemulder et Brandy Ledford,
 Michel Houellebecq
 50 Cent et Lastonia Leviston
 </t>
@@ -627,12 +643,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Films
-2004 : Sex Tape
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2004 : Sex Tape
 2013 : Sx Tape (en)
-2018 : À genoux les gars (sous le titre Sextape en anglais)
-Musiques
-2020 : The S(ex) Tapes (en)</t>
+2018 : À genoux les gars (sous le titre Sextape en anglais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sextape</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sextape</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Musiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020 : The S(ex) Tapes (en)</t>
         </is>
       </c>
     </row>
